--- a/Modulo5/src/out/info_estados/Hawaii.xlsx
+++ b/Modulo5/src/out/info_estados/Hawaii.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
-  </si>
-  <si>
-    <t>columna_aumentada</t>
+    <t>nuevaColumna</t>
+  </si>
+  <si>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>H</t>
@@ -533,14 +539,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>5606</v>
       </c>
       <c r="M2">
         <v>15001</v>
@@ -577,14 +583,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>1640</v>
       </c>
       <c r="M3">
         <v>15001</v>
@@ -621,14 +627,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>956</v>
       </c>
       <c r="M4">
         <v>15001</v>
@@ -665,14 +671,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="M5">
         <v>15001</v>
@@ -709,14 +715,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="M6">
         <v>15001</v>
@@ -753,14 +759,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>563</v>
       </c>
       <c r="M7">
         <v>15001</v>
@@ -797,14 +803,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>11459</v>
       </c>
       <c r="M8">
         <v>15003</v>
@@ -841,14 +847,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>6687</v>
       </c>
       <c r="M9">
         <v>15003</v>
@@ -885,14 +891,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3665</v>
       </c>
       <c r="M10">
         <v>15003</v>
@@ -929,14 +935,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>919</v>
       </c>
       <c r="M11">
         <v>15003</v>
@@ -973,14 +979,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>1262</v>
       </c>
       <c r="M12">
         <v>15003</v>
@@ -1017,14 +1023,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3101</v>
       </c>
       <c r="M13">
         <v>15003</v>
@@ -1061,14 +1067,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>2050</v>
       </c>
       <c r="M14">
         <v>15007</v>
@@ -1105,14 +1111,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>608</v>
       </c>
       <c r="M15">
         <v>15007</v>
@@ -1149,14 +1155,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="M16">
         <v>15007</v>
@@ -1193,14 +1199,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="M17">
         <v>15007</v>
@@ -1237,14 +1243,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M18">
         <v>15007</v>
@@ -1281,14 +1287,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="M19">
         <v>15007</v>
@@ -1325,14 +1331,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4420</v>
       </c>
       <c r="M20">
         <v>15009</v>
@@ -1369,14 +1375,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1196</v>
       </c>
       <c r="M21">
         <v>15009</v>
@@ -1413,14 +1419,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>679</v>
       </c>
       <c r="M22">
         <v>15009</v>
@@ -1457,14 +1463,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="M23">
         <v>15009</v>
@@ -1501,14 +1507,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="M24">
         <v>15009</v>
@@ -1545,14 +1551,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="M25">
         <v>15009</v>
